--- a/tests/data/checker/example_incoming_excel.xlsx
+++ b/tests/data/checker/example_incoming_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmadaria\Documents\Projects\BAMresearch\bam-masterdata\tests\data\checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpizarro\work\repos\bam-masterdata\tests\data\checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E9E51-D03E-49E5-850D-D9F965C1BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98027863-56F9-4A93-BA77-3332D9DC9C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection types" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Generated code prefix</t>
   </si>
   <si>
-    <t>Auto generated codes</t>
-  </si>
-  <si>
     <t>ACTION</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Experimental details</t>
+  </si>
+  <si>
+    <t>Auto generate codes</t>
   </si>
 </sst>
 </file>
@@ -519,25 +519,25 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -551,7 +551,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,9 +571,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -587,7 +587,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,65 +595,65 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -667,9 +667,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -683,7 +683,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,13 +703,13 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -721,7 +721,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,60 +729,60 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -803,14 +803,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -824,7 +824,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -848,9 +848,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -864,7 +864,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,63 +872,63 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -942,9 +942,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -958,7 +958,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -982,9 +982,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -998,7 +998,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,60 +1006,60 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1077,15 +1077,15 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1125,19 +1125,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1155,60 +1155,60 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
